--- a/output/2023-03-21/gen_parameter_20230321.xlsx
+++ b/output/2023-03-21/gen_parameter_20230321.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['P1VSGMF.B2MTX_PCOEC_H_1_0','P1VSGMF.B2MTX_PCOEC_T_1_0_T1','P1VTXEDW.FACT_B2MTX_MERCH_TRANS_TEMP_D','P1VTXEDW.VIM_IMACTM10_ACCOPRODHIST_01','P1VTXEDW.VESL_EDW_ACCT_STATS_IM','P1VSTEDW.S1_HITCOUNT_1_0','P1VTXEDW.VEPP_B2B_EVENT_01','P1VTXEDW.VLOS_PR10_QUOPROFEATUR_01']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['P1VEULQ.VLQ_06_GL_PROD_SEGMENT','P1VTTEDW.GN_MT_EVENT_LOG']</t>
+          <t>['P1VEULQ.VLQ_01_IM_ST_DAILY','P1VEULQ.VLQ_04_GL_OC_SEGMENT','P1VEULQ.VLQ_03_GL_RC_SEGMENT']</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['P1VTPSL.TVSL_OUTSTANDING']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['P1VTXEDW.LEAD_QUOTATION_ACCOUNT','P1VTPBIT.TVBI_BI_RC_SUB_LEV','P1VTXEDW.VESL_EDW_AGREEMENT_INFO_ICORE','P1VTXEDW.VESL_EDW_ACCT_STATS_B2K','P1VTXEDW.VESL_EDW_ACCT_STATS_ST3','P1VTPBIT.TVBI_BI_ORG_SUB_LEV','P1VTXEDW.VESL_EDW_ACCT_STATS_TR']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['P1VTXEDW.VUL_CCHSSEQ_01','P1VEUOBM.VOBM_01_ACCRU_GRP_DETAIL_HS','P1VEUOBM.VOBM_PLAN_RATE_HS','P1VEUDMS.VDMS_ESL_SEC_FEATURE','P1VEUCDD.VCDD_PRODUCT','P1VEUOBM.VOBM_08_LIMIT_INFO_HS','P1VEUOBM.VOBM_27_ITEM_ORIG_MAP_HS','P1VEUOBM.VOBM_02_BALANCE_INFO_HS','P1VEUDMS.VDMS_ESL_DAILY_NOTIONAL']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,27 +1081,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1VSGMF.B2MTX_PCOEC_H_1_0</t>
+          <t>P1VEULQ.VLQ_01_IM_ST_DAILY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B2MTX_SRC_DAILY</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MFEC</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1111,27 +1111,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P1VSGMF.B2MTX_PCOEC_T_1_0_T1</t>
+          <t>P1VEULQ.VLQ_04_GL_OC_SEGMENT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B2MTX_SRC_DAILY</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MFEC</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1141,750 +1141,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P1VTXEDW.FACT_B2MTX_MERCH_TRANS_TEMP_D</t>
+          <t>P1VEULQ.VLQ_03_GL_RC_SEGMENT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B2MTX_SRC_DAILY</t>
+          <t>LQ_DSF_DAILY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MVP1</t>
+          <t>MVP2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MFEC</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VIM_IMACTM10_ACCOPRODHIST_01</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IM_SRC_DAILY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VESL_EDW_ACCT_STATS_IM</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>IM_SRC_DAILY</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P1VSTEDW.S1_HITCOUNT_1_0</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S1_SRC_DAILY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VEPP_B2B_EVENT_01</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EPP_SRC_MONTHLY</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VLOS_PR10_QUOPROFEATUR_01</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LOS_SRC_DAILY</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MVP1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P1VEULQ.VLQ_06_GL_PROD_SEGMENT</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LQ_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P1VTTEDW.GN_MT_EVENT_LOG</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CHYO_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MVP2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P1VTPSL.TVSL_OUTSTANDING</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SL_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>MVP3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.LEAD_QUOTATION_ACCOUNT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BI_DSF_LEAD_DAILY</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P1VTPBIT.TVBI_BI_RC_SUB_LEV</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BI_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VESL_EDW_AGREEMENT_INFO_ICORE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EDW_ESL_DAILY</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VESL_EDW_ACCT_STATS_B2K</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EDW_ESL_WEEKLY</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VESL_EDW_ACCT_STATS_ST3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EDW_ESL_WEEKLY</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P1VTPBIT.TVBI_BI_ORG_SUB_LEV</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>BI_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VESL_EDW_ACCT_STATS_TR</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EDW_ESL_WEEKLY</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MVP4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P1VTXEDW.VUL_CCHSSEQ_01</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RSK_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P1VEUOBM.VOBM_01_ACCRU_GRP_DETAIL_HS</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>OBM_DSF_DAILY_HS</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P1VEUOBM.VOBM_PLAN_RATE_HS</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>OBM_DSF_DAILY_HS</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P1VEUDMS.VDMS_ESL_SEC_FEATURE</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DMS_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P1VEUCDD.VCDD_PRODUCT</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CDD_DSF_PER</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P1VEUOBM.VOBM_08_LIMIT_INFO_HS</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>OBM_DSF_DAILY_HS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P1VEUOBM.VOBM_27_ITEM_ORIG_MAP_HS</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>OBM_DSF_DAILY_HS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P1VEUOBM.VOBM_02_BALANCE_INFO_HS</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>OBM_DSF_DAILY_HS</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P1VEUDMS.VDMS_ESL_DAILY_NOTIONAL</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DMS_DSF_DAILY</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MVP6</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MFEC</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
         <v/>
       </c>
     </row>

--- a/output/2023-03-21/gen_parameter_20230321.xlsx
+++ b/output/2023-03-21/gen_parameter_20230321.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['P1VTXEDW.VS1_EVENTDETAIL_01','P1VSGMF.ATMI_ATM_TRANSACTION_1_0','P1VSGMF.ATM_ATM_TRANSACTION_1_0','P1VSGMF.ATM_CDM_R_TRANSAC_1_0','P1VSGMF.ATM_MUL_TRANSACTION_1_0','P1VSGMF.ATM_HPC_TRANSACTION_1_0','P1VSGMF.ATS_REPORT_FILE_1_0','P1VSGMF.B2K_BCFDTLR_1_0','P1VSGMF.B2K_BCPIHSST_1_0','P1VSGMF.B2K_BCVISAR_1_0','P1VSGMF.B2K_BCFDTLRU_1_0','P1VSGMF.B2K_MCURBAL3_1_0','P1VSGMF.B2MTX_MFBC032_T_ND_1_0','P1VSGMF.B2MTX_MFBC032_T_SD_1_0','P1VSGMF.B2MTX_MF2ECOM1_T_ND_1_0','P1VSGMF.B2MTX_MF2ECMS1_T_SD_1_0','P1VSGMF.B2MTX_MFBCIPP_T_1_0','P1VSGMF.B2MTX_PCOEC_T_1_0','P1VSGMF.B2MTX_BCOMC_T_1_0','P1VSGMF.B2MTX_POLSB101_T_1_0','P1VSGMF.GN_BPTRN_1_0','P1VSGMF.GN_MTLOG_1_0','P1VSGMF.GN_MTLOG_1_0_T1']</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['P1VEULQ.VLQ_01_IM_ST_DAILY','P1VEULQ.VLQ_04_GL_OC_SEGMENT','P1VEULQ.VLQ_03_GL_RC_SEGMENT']</t>
+          <t>['P1VEUIPS.VIPS_CUSTOC','P1VTPBCM.TVBCM_PAYROLL_PA_ATS_CN']</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,18 +555,708 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>GROUP_JOB_NAME</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>DEPLOY</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>INT_L_S1_EDW_XFER_FEE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>S1_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>INT_L_CFE_EDW_CA_TXN_T1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INT_L_INV_EDW_M_CUSTOMER</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INV_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INT_L_CFE_EDW_NOTES_TXN1_T1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>INT_T_ATM_DEBITACCT_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INT_T_SFC_CMS_DPY_ASSET_ALLOTLOG_01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EDW_SFC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>INT_L_RBF_EDW_TERMNEW</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RBF_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>INT_L_CFE_EDW_CBB_TXN1_T1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INT_T_SFC_FUNDPRODADMIN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EDW_SFC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>INT_L_CFE_EDW_BC_TXN_T1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>INT_L_BPL_EDW_PERFECTDEL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BPL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_EDW_CCAAIS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_PARAM_PREFIX</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_EDW_SCBPRD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_EDW_GLRCCODE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_EDW_GLOTHCOM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>INT_L_BI_EDW_EXT_PMS_ACCOUNT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BI_DSF_EXT_DAILY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>INT_L_EDW_EDW_PRODGRP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>INT_L_BI_EDW_EXT_PMS_CREDIT_CARD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BI_DSF_EXT_DAILY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>INT_T_AML_SUMMARY_NOTSEND_SET5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>INT_L_DPA_EDW_INSTITU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DPA_DSF_EXT_PER</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INT_T_AML_ASSOCIATE_DIM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>INT_L_DPA_EDW_FINANDCRE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INTERFACE_NAME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DS_INT_MAPPING</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DPA_DSF_EXT_PER</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -598,7 +1288,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INT_L_S1_EDW_XFER_FEE','INT_L_CFE_EDW_CA_TXN_T1','INT_L_INV_EDW_M_CUSTOMER','INT_L_CFE_EDW_NOTES_TXN1_T1','INT_T_ATM_DEBITACCT_01','INT_T_SFC_CMS_DPY_ASSET_ALLOTLOG_01','INT_L_RBF_EDW_TERMNEW','INT_L_CFE_EDW_CBB_TXN1_T1','INT_T_SFC_FUNDPRODADMIN','INT_L_CFE_EDW_BC_TXN_T1']</t>
         </is>
       </c>
     </row>
@@ -612,7 +1302,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INT_L_BPL_EDW_PERFECTDEL']</t>
         </is>
       </c>
     </row>
@@ -640,7 +1330,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INT_L_EDW_EDW_CCAAIS','INT_L_EDW_PARAM_PREFIX','INT_L_EDW_EDW_SCBPRD','INT_L_EDW_EDW_GLRCCODE','INT_L_EDW_EDW_GLOTHCOM','INT_L_BI_EDW_EXT_PMS_ACCOUNT','INT_L_EDW_EDW_PRODGRP','INT_L_BI_EDW_EXT_PMS_CREDIT_CARD']</t>
         </is>
       </c>
     </row>
@@ -654,7 +1344,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['INT_T_AML_SUMMARY_NOTSEND_SET5','INT_L_DPA_EDW_INSTITU','INT_T_AML_ASSOCIATE_DIM','INT_L_DPA_EDW_FINANDCRE']</t>
         </is>
       </c>
     </row>
@@ -669,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -695,18 +1385,5538 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>GROUP_JOB_NAME</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>DEPLOY</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CTLFW_FILE_PROCESS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ESN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RBF_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SFC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EDW_SFC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>S1_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FES_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CFE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SBA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SBA_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>OBIN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OBIN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NROL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NROL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IPS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>IPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CSM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CSM_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>OFSAA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OFSAA_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ACR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACR_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>HP_SRC_DAILY_30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EPPD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EPPD_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>IM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EPS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>EPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ANYID</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ANYID_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IMEX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PSS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PSS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ATM_CCB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ATM_CCB_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FLTC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FLTC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CBOS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CBOS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FCD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>IM_FCD_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DSR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DSR_SCR_DAILY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SRS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SRS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LEADAUTO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LEAD_AUTO_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ISOP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ISOP_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SCF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SCF_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BCS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BCS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SWALL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SWALL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B2K</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IVR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>IVR_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IMEXI</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>IMEX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LEGO</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LEGO_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WINP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>WINP_SRC_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PLPS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PLPS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CAPI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CAPI_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SIP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SIP_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SCB1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SCB1_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SDO</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SDO_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SSUP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SSUP_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BRR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BRR_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GL_SRC_PER_CLOSING_EOM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UTM</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>UTM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CSENT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CSENT_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PMKFE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PMKFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MCS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>MCS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EPP</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EPP_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LEAD_UL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>OLS_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NSS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NSS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RIS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>RIS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ST_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ERP</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ERP_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AIS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AIS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FATCA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FAT_SRC_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SCBCON</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SCBCON_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>IRB</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>IRB_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>POINTX</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>POINTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IV</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>IV_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ATS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ATS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LOC</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LOC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LOS_EXT_PER</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MCHQ</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MCHQ_DAILY</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LIS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>LIS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DTC</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DTC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>RM_DAILY</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FRCI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>FRCI_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>INV_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MMS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MMS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>BKL</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BKL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>IFT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>IFT_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>BSB</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BSB_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B2MTX</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ETAX</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ETAX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PLT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PLT_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ICORE</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ICORE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ICAS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ICAS_SRC_DAILY_MF</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>LVL</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>LVL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FRC</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>FRC_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PMH_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>INS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MUREX</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MUREX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EWLP</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>EWLP_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CBO</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CBO_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CPX</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CPX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>BRR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BRR_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>IPS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>IPS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>WLS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>WLS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>INV_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>EFS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>EDW_EFS_DAILY</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PMH</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PMH_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>LQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>LQ_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ATM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CCP</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CCP_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RCR</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>RCR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CFO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CRMD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CRMD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CRM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BBG</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>BBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BCM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>BCM_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>STB</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>STB_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BPL</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>BPL_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PDPA</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PDPA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CHYO</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CHYO_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CSM</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>EDW_CSM_DOWNSTEAM</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NSS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>EDW_NSS_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>FES</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>FES_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>UTM</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>UTM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>LLFP</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>LLFP_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>BU_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RBF</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>RBF_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>LEAD_UL</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>EDW_UNS_LEAD_DAILY</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CSS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SVS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SVS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BCC</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BCC_DOWNSTEAM</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WSS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>WSS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SL</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>RUB_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ACTM</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ACTM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MRP</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>MRP_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>EDW_ST_DSF_MONTH</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EDM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>EDW_EDM_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CSL</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CSL_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PRM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>PRM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ESN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ESN_DSF_SYNC_DAILY</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CSENT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CSENT_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BI</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BI_DSF_ESN_DAILY</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BIFI</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>BIFI_SRC_PER2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ESL</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>EDW_ESL_MONTHLY_CC</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EDW</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>EDW_SRC_PER</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DPA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>DPA_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>CCS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CCS_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B2K</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>EDW_B2K_DSF_EXTERNAL</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PPS_DSF_FREEZE_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>OBM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>OBM_DSF_EXT_LOAD_PER</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AM_DSF_YEARLY</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ACR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ACR_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>5DSF</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5DSF_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DMS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>DMS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>FATCA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>FAT_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BKL</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>EDW_BKL_DSF_MTH_1</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>RDS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>RDS_EP_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GNL</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>EDW_GNL_DSF_AUTO_DAILY_WEEKDAY</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>IVC</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>EDW_IVC_DAILY</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>OSA</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>OSA_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ENL</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>ENL_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>CTP</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>EDW_CTP_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CDD</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>CDD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>RISK</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>RISK_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PBFE</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>EDW_PBFE_DB_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>RSK</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>RSK_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>RBSIS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>RBSIS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>AML</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>CTLFW_PROCESS_ID</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>IRS_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ROC</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ROC_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>KLM</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>KLM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>CDMS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>CDMS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>CB_DSF_YEARLY</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>EDW_ML_DOWNSTEAM2</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PFM</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PFM_DSF_WEEKLY2</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>OLS</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>EDW_OLS_B2K_DAILY</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ODS</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>ODS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>CCB</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>CCB_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SCBL</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>SCBL_DSF_PARAM_DAILY</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>SC_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SCRUB</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>EDW_SCRUB_DAILY</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SFC</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>EDW_SFC_IVR_DSF</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>CVA</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CVA_DSF_PER</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>OBR</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>OBR_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>MCS</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>EDW_MCS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SCBC</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>SCBC_DSF_WEEKLY</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>TRD</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>TRD_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LCS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>LCS_SRC_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>LOS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>IM</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>IM_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SYSTEM_NAME</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>CTLFW_SYSTEM_FILE</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>EDW_CMS_EXTERNAL</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -738,7 +6948,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>ESN,RBF,SFC,AM,S1,FES,CFE,ATM,SBA,GN,OBIN,NROL,GCS,IPS,CSM,OFSAA,ACR,HP,EPPD,IM,EPS,ANYID,IMEX,PSS,ATM_CCB,FLTC,CBOS,FCD,DSR,SRS,LEADAUTO,ISOP,SCF,BCS,MPS,SWALL,B2K,IVR,IMEXI,LEGO,WINP,PLPS,CAPI,SIP,SCB1,SDO,SSUP,BRR,GL,UTM,CSENT,PMKFE,MCS,EPP,LEAD_UL,OLS,NSS,RIS,ST,ERP,AIS,FATCA,SCBCON,IRB,POINTX,IV,ATS,LOC,LOS,MCHQ,LIS,DTC,RM,FRCI,INV,MMS,BKL,IFT,BSB,B2MTX,ETAX,PLT,ICORE,ICAS,LVL,FRC,PMH,INS,MUREX,EWLP,CBO,CPX</t>
         </is>
       </c>
     </row>
@@ -752,7 +6962,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>BRR,IPS,WLS,INV,EFS,PMH,LQ,ATM,CCP,RCR,CFO,CRMD,CRM,BBG,BCM,STB,BPL,PDPA,CHYO</t>
         </is>
       </c>
     </row>
@@ -766,7 +6976,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>CSM,NSS,FES,UTM,LLFP,BU,RBF,LEAD_UL,CSS,SVS,BCC,WSS,SL,RUB,ACTM,MRP,ST,EDM,CSL,PRM,ESN,CSENT</t>
         </is>
       </c>
     </row>
@@ -780,7 +6990,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>SBG,BI,BIFI,ESL,EDW</t>
         </is>
       </c>
     </row>
@@ -794,7 +7004,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>DPA,CCS,B2K,PPS,OBM,AM,ACR,5DSF,DMS,FATCA,BKL,RDS,GNL,IVC,OSA,ENL,CTP,CDD,RISK,PBFE,RSK,RBSIS,AML,IRS,ROC,KLM,CDMS,CB,ML,PFM,OLS,ODS,CCB,SCBL,SC,SCRUB,SFC,CVA,OBR,MCS,SCBC,TRD,LCS,LOS,IM,CMS</t>
         </is>
       </c>
     </row>
@@ -827,7 +7037,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_SFC','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_S1','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_CFE','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_SBA','REGISTER_CONFIG_SYSTEM_GN','REGISTER_CONFIG_SYSTEM_OBIN','REGISTER_CONFIG_SYSTEM_NROL','REGISTER_CONFIG_SYSTEM_GCS','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_OFSAA','REGISTER_CONFIG_SYSTEM_ACR','REGISTER_CONFIG_SYSTEM_HP','REGISTER_CONFIG_SYSTEM_EPPD','REGISTER_CONFIG_SYSTEM_IM','REGISTER_CONFIG_SYSTEM_EPS','REGISTER_CONFIG_SYSTEM_ANYID','REGISTER_CONFIG_SYSTEM_IMEX','REGISTER_CONFIG_SYSTEM_PSS','REGISTER_CONFIG_SYSTEM_ATM_CCB','REGISTER_CONFIG_SYSTEM_FLTC','REGISTER_CONFIG_SYSTEM_CBOS','REGISTER_CONFIG_SYSTEM_FCD','REGISTER_CONFIG_SYSTEM_DSR','REGISTER_CONFIG_SYSTEM_SRS','REGISTER_CONFIG_SYSTEM_LEADAUTO','REGISTER_CONFIG_SYSTEM_ISOP','REGISTER_CONFIG_SYSTEM_SCF','REGISTER_CONFIG_SYSTEM_BCS','REGISTER_CONFIG_SYSTEM_MPS','REGISTER_CONFIG_SYSTEM_SWALL','REGISTER_CONFIG_SYSTEM_B2K','REGISTER_CONFIG_SYSTEM_IVR','REGISTER_CONFIG_SYSTEM_IMEXI','REGISTER_CONFIG_SYSTEM_LEGO','REGISTER_CONFIG_SYSTEM_WINP','REGISTER_CONFIG_SYSTEM_PLPS','REGISTER_CONFIG_SYSTEM_CAPI','REGISTER_CONFIG_SYSTEM_SIP','REGISTER_CONFIG_SYSTEM_SCB1','REGISTER_CONFIG_SYSTEM_SDO','REGISTER_CONFIG_SYSTEM_SSUP','REGISTER_CONFIG_SYSTEM_BRR','REGISTER_CONFIG_SYSTEM_GL','REGISTER_CONFIG_SYSTEM_UTM','REGISTER_CONFIG_SYSTEM_CSENT','REGISTER_CONFIG_SYSTEM_PMKFE','REGISTER_CONFIG_SYSTEM_MCS','REGISTER_CONFIG_SYSTEM_EPP','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_NSS','REGISTER_CONFIG_SYSTEM_RIS','REGISTER_CONFIG_SYSTEM_ST','REGISTER_CONFIG_SYSTEM_ERP','REGISTER_CONFIG_SYSTEM_AIS','REGISTER_CONFIG_SYSTEM_FATCA','REGISTER_CONFIG_SYSTEM_SCBCON','REGISTER_CONFIG_SYSTEM_IRB','REGISTER_CONFIG_SYSTEM_POINTX','REGISTER_CONFIG_SYSTEM_IV','REGISTER_CONFIG_SYSTEM_ATS','REGISTER_CONFIG_SYSTEM_LOC','REGISTER_CONFIG_SYSTEM_LOS','REGISTER_CONFIG_SYSTEM_MCHQ','REGISTER_CONFIG_SYSTEM_LIS','REGISTER_CONFIG_SYSTEM_DTC','REGISTER_CONFIG_SYSTEM_RM','REGISTER_CONFIG_SYSTEM_FRCI','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_MMS','REGISTER_CONFIG_SYSTEM_BKL','REGISTER_CONFIG_SYSTEM_IFT','REGISTER_CONFIG_SYSTEM_BSB','REGISTER_CONFIG_SYSTEM_B2MTX','REGISTER_CONFIG_SYSTEM_ETAX','REGISTER_CONFIG_SYSTEM_PLT','REGISTER_CONFIG_SYSTEM_ICORE','REGISTER_CONFIG_SYSTEM_ICAS','REGISTER_CONFIG_SYSTEM_LVL','REGISTER_CONFIG_SYSTEM_FRC','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_INS','REGISTER_CONFIG_SYSTEM_MUREX','REGISTER_CONFIG_SYSTEM_EWLP','REGISTER_CONFIG_SYSTEM_CBO','REGISTER_CONFIG_SYSTEM_CPX']</t>
         </is>
       </c>
     </row>
@@ -841,7 +7051,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['REGISTER_CONFIG_SYSTEM_BRR','REGISTER_CONFIG_SYSTEM_IPS','REGISTER_CONFIG_SYSTEM_WLS','REGISTER_CONFIG_SYSTEM_INV','REGISTER_CONFIG_SYSTEM_EFS','REGISTER_CONFIG_SYSTEM_PMH','REGISTER_CONFIG_SYSTEM_LQ','REGISTER_CONFIG_SYSTEM_ATM','REGISTER_CONFIG_SYSTEM_CCP','REGISTER_CONFIG_SYSTEM_RCR','REGISTER_CONFIG_SYSTEM_CFO','REGISTER_CONFIG_SYSTEM_CRMD','REGISTER_CONFIG_SYSTEM_CRM','REGISTER_CONFIG_SYSTEM_BBG','REGISTER_CONFIG_SYSTEM_BCM','REGISTER_CONFIG_SYSTEM_STB','REGISTER_CONFIG_SYSTEM_BPL','REGISTER_CONFIG_SYSTEM_PDPA','REGISTER_CONFIG_SYSTEM_CHYO']</t>
         </is>
       </c>
     </row>
@@ -855,7 +7065,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['REGISTER_CONFIG_SYSTEM_CSM','REGISTER_CONFIG_SYSTEM_NSS','REGISTER_CONFIG_SYSTEM_FES','REGISTER_CONFIG_SYSTEM_UTM','REGISTER_CONFIG_SYSTEM_LLFP','REGISTER_CONFIG_SYSTEM_BU','REGISTER_CONFIG_SYSTEM_RBF','REGISTER_CONFIG_SYSTEM_LEAD_UL','REGISTER_CONFIG_SYSTEM_CSS','REGISTER_CONFIG_SYSTEM_SVS','REGISTER_CONFIG_SYSTEM_BCC','REGISTER_CONFIG_SYSTEM_WSS','REGISTER_CONFIG_SYSTEM_SL','REGISTER_CONFIG_SYSTEM_RUB','REGISTER_CONFIG_SYSTEM_ACTM','REGISTER_CONFIG_SYSTEM_MRP','REGISTER_CONFIG_SYSTEM_ST','REGISTER_CONFIG_SYSTEM_EDM','REGISTER_CONFIG_SYSTEM_CSL','REGISTER_CONFIG_SYSTEM_PRM','REGISTER_CONFIG_SYSTEM_ESN','REGISTER_CONFIG_SYSTEM_CSENT']</t>
         </is>
       </c>
     </row>
@@ -869,7 +7079,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['REGISTER_CONFIG_SYSTEM_SBG','REGISTER_CONFIG_SYSTEM_BI','REGISTER_CONFIG_SYSTEM_BIFI','REGISTER_CONFIG_SYSTEM_ESL','REGISTER_CONFIG_SYSTEM_EDW']</t>
         </is>
       </c>
     </row>
@@ -883,7 +7093,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['REGISTER_CONFIG_SYSTEM_DPA','REGISTER_CONFIG_SYSTEM_CCS','REGISTER_CONFIG_SYSTEM_B2K','REGISTER_CONFIG_SYSTEM_PPS','REGISTER_CONFIG_SYSTEM_OBM','REGISTER_CONFIG_SYSTEM_AM','REGISTER_CONFIG_SYSTEM_ACR','REGISTER_CONFIG_SYSTEM_5DSF','REGISTER_CONFIG_SYSTEM_DMS','REGISTER_CONFIG_SYSTEM_FATCA','REGISTER_CONFIG_SYSTEM_BKL','REGISTER_CONFIG_SYSTEM_RDS','REGISTER_CONFIG_SYSTEM_GNL','REGISTER_CONFIG_SYSTEM_IVC','REGISTER_CONFIG_SYSTEM_OSA','REGISTER_CONFIG_SYSTEM_ENL','REGISTER_CONFIG_SYSTEM_CTP','REGISTER_CONFIG_SYSTEM_CDD','REGISTER_CONFIG_SYSTEM_RISK','REGISTER_CONFIG_SYSTEM_PBFE','REGISTER_CONFIG_SYSTEM_RSK','REGISTER_CONFIG_SYSTEM_RBSIS','REGISTER_CONFIG_SYSTEM_AML','REGISTER_CONFIG_SYSTEM_IRS','REGISTER_CONFIG_SYSTEM_ROC','REGISTER_CONFIG_SYSTEM_KLM','REGISTER_CONFIG_SYSTEM_CDMS','REGISTER_CONFIG_SYSTEM_CB','REGISTER_CONFIG_SYSTEM_ML','REGISTER_CONFIG_SYSTEM_PFM','REGISTER_CONFIG_SYSTEM_OLS','REGISTER_CONFIG_SYSTEM_ODS','REGISTER_CONFIG_SYSTEM_CCB','REGISTER_CONFIG_SYSTEM_SCBL','REGISTER_CONFIG_SYSTEM_SC','REGISTER_CONFIG_SYSTEM_SCRUB','REGISTER_CONFIG_SYSTEM_SFC','REGISTER_CONFIG_SYSTEM_CVA','REGISTER_CONFIG_SYSTEM_OBR','REGISTER_CONFIG_SYSTEM_MCS','REGISTER_CONFIG_SYSTEM_SCBC','REGISTER_CONFIG_SYSTEM_TRD','REGISTER_CONFIG_SYSTEM_LCS','REGISTER_CONFIG_SYSTEM_LOS','REGISTER_CONFIG_SYSTEM_IM','REGISTER_CONFIG_SYSTEM_CMS']</t>
         </is>
       </c>
     </row>
@@ -898,7 +7108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,18 +7134,648 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>GROUP_JOB_NAME</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>MVP</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>GROUP_JOB_NAME</t>
-        </is>
-      </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>DEPLOY</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FILE_CFE_NOTES_TR_1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FILE_CFE_MNG_TXN_1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FILE_CFE_ECC_CASH_TXN_1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FILE_CFE_TCS_TXN1_1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CFE_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FILE_VACTM_ACCOUNT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ACTM_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MVP3</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_COLLRETAIL_1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_ACCTSUBTYPE_1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_COLLWS_1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_PERREQUEST</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_LISDETAIL_1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_ACCTLIST_1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DSGEDW_LIS_PARM_NPLSELLINV_1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DSGEDW_NPL_PARM_OCLIST_1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EDW_SBG_DSF_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MVP4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FILE_VAML_SUMMARY_SOURCE_FILE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DPYCCS_CRM_INS_DVS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CCS_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FILE_VAML_SUMMARY_NOTSEND</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>VEUCTP_VCTP_COUNTRY_UNDRAW</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EDW_CTP_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FILE_VCTP_COUNTRY_UNDRAW</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EDW_CTP_MONTHLY</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DPYCCS_CRM_INS_SSMG</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CCS_DSF_MONTHLY2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>VEUOBM_VOBM_18_PART_INFO_NSCB</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OBM_DSF_DAILY_HS</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FILE_VAML_SUMMARY_SEND</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>AML_DSF_DAILY3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FILE_VODS_CUSTOMER</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TABLE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DS_TABLE_DEFINITION</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ODS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MVP6</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -967,7 +7807,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>schema:  ['FILE','FILE','FILE','FILE'],     table:  ['CFE_NOTES_TR_1_0','CFE_MNG_TXN_1_0','CFE_ECC_CASH_TXN_1_0','CFE_TCS_TXN1_1_0']</t>
         </is>
       </c>
     </row>
@@ -995,7 +7835,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>schema:  ['FILE'],     table:  ['VACTM_ACCOUNT']</t>
         </is>
       </c>
     </row>
@@ -1009,7 +7849,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>schema:  ['DSGEDW','DSGEDW','DSGEDW','DSGEDW','DSGEDW','DSGEDW','DSGEDW'],     table:  ['NPL_PARM_COLLRETAIL_1_0','NPL_PARM_ACCTSUBTYPE_1_0','NPL_PARM_COLLWS_1_0','NPL_PARM_LISDETAIL_1_0','NPL_PARM_ACCTLIST_1_0','LIS_PARM_NPLSELLINV_1_0','NPL_PARM_OCLIST_1_0']</t>
         </is>
       </c>
     </row>
@@ -1023,7 +7863,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>schema:  ['FILE','DPYCCS','FILE','VEUCTP','FILE','DPYCCS','VEUOBM','FILE','FILE'],     table:  ['VAML_SUMMARY_SOURCE_FILE','CRM_INS_DVS','VAML_SUMMARY_NOTSEND','VCTP_COUNTRY_UNDRAW','VCTP_COUNTRY_UNDRAW','CRM_INS_SSMG','VOBM_18_PART_INFO_NSCB','VAML_SUMMARY_SEND','VODS_CUSTOMER']</t>
         </is>
       </c>
     </row>
@@ -1038,7 +7878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,27 +7921,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P1VEULQ.VLQ_01_IM_ST_DAILY</t>
+          <t>P1VTXEDW.VS1_EVENTDETAIL_01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>S1_SRC_DAILY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MFEC</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -1111,27 +7951,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P1VEULQ.VLQ_04_GL_OC_SEGMENT</t>
+          <t>P1VSGMF.ATMI_ATM_TRANSACTION_1_0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>ATM_CCB_SRC_DAILY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MVP2</t>
+          <t>MVP1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>MFEC</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1141,30 +7981,690 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P1VEULQ.VLQ_03_GL_RC_SEGMENT</t>
+          <t>P1VSGMF.ATM_ATM_TRANSACTION_1_0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LQ_DSF_DAILY</t>
+          <t>ATM_SRC_DAILY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P1VSGMF.ATM_CDM_R_TRANSAC_1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P1VSGMF.ATM_MUL_TRANSACTION_1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P1VSGMF.ATM_HPC_TRANSACTION_1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P1VSGMF.ATS_REPORT_FILE_1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATS_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2K_BCFDTLR_1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2K_BCPIHSST_1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2K_BCVISAR_1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2K_BCFDTLRU_1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2K_MCURBAL3_1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B2K_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_MFBC032_T_ND_1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_MFBC032_T_SD_1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_MF2ECOM1_T_ND_1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_MF2ECMS1_T_SD_1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_MFBCIPP_T_1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_PCOEC_T_1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_BCOMC_T_1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P1VSGMF.B2MTX_POLSB101_T_1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B2MTX_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P1VSGMF.GN_BPTRN_1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P1VSGMF.GN_MTLOG_1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P1VSGMF.GN_MTLOG_1_0_T1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GN_SRC_DAILY</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MVP1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MFEC</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P1VEUIPS.VIPS_CUSTOC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IPS_DSF_DAILY</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>MVP2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P1VTPBCM.TVBCM_PAYROLL_PA_ATS_CN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BCM_DSF_MONTHLY3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MVP2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
         <v/>
       </c>
     </row>
